--- a/Testdata/TC07_EditServicesRate.xlsx
+++ b/Testdata/TC07_EditServicesRate.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TestCoffee496\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA923BE5-1D5F-4DA2-8AC9-6F486D668A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD83603C-B907-4BA2-B65C-0138B5B4604B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="100">
   <si>
     <t>TDID</t>
   </si>
@@ -231,9 +231,6 @@
     <t>แก้ไขรายการบริการสำเร็จ</t>
   </si>
   <si>
-    <t>รายการบริการ</t>
-  </si>
-  <si>
     <t>Button</t>
   </si>
   <si>
@@ -261,18 +258,12 @@
     <t>TD005</t>
   </si>
   <si>
-    <t>บริการสีเปลือกกาแฟและบดเมล็ดกาแฟคั่วเมล็ดกาแฟ 25 – 50 กรัม.กาแฟหอมกลมกล่อมกับการบดที่ทำให้กาแฟละมุนอร่อย</t>
-  </si>
-  <si>
     <t>กรุณากรอกชื่อบริการไม่เกิน 100 ตัวอักษร</t>
   </si>
   <si>
     <t>TD006</t>
   </si>
   <si>
-    <t>กรุณาข้อมูลให้ถูกต้อง</t>
-  </si>
-  <si>
     <t>TD007</t>
   </si>
   <si>
@@ -322,13 +313,25 @@
   </si>
   <si>
     <t>บริการสีเปลือกาแฟและ</t>
+  </si>
+  <si>
+    <t>Revised</t>
+  </si>
+  <si>
+    <t>บริการสีเปลือกกาแฟและบดเมล็ดกาแฟคั่วเมล็ดกาแฟ 25 – 50 กรัม.กาแฟหอมกลมกล่อมกับการบดที่ทำให้กาแฟละมุนอร่อยย</t>
+  </si>
+  <si>
+    <t>แก้ไขข้อมูลสำเร็จ</t>
+  </si>
+  <si>
+    <t>เรทอัตราบริการมี+F9จำนวนตั้งแต่ 25 บาท ถึง 100 บาทเท่านั้น</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Mic Shell Dlg"/>
@@ -377,6 +380,11 @@
       <sz val="8"/>
       <name val="Mic Shell Dlg"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Mic Shell Dlg"/>
     </font>
   </fonts>
   <fills count="16">
@@ -523,7 +531,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -539,7 +547,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -548,7 +555,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -559,7 +565,7 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -570,7 +576,7 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -581,6 +587,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -1149,7 +1164,7 @@
       <c r="F5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="13" t="s">
         <v>35</v>
       </c>
       <c r="H5" s="7" t="s">
@@ -1524,10 +1539,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -1536,9 +1551,10 @@
     <col min="5" max="5" width="5.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="41" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="44.33203125" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.399999999999999" customHeight="1">
+    <row r="1" spans="1:11" ht="20.399999999999999" customHeight="1">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1546,31 +1562,34 @@
         <v>8</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="J1" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="K1" s="35" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.6">
+    <row r="2" spans="1:11" ht="15.6">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
@@ -1583,22 +1602,25 @@
       <c r="D2" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="F2" s="16" t="s">
+      <c r="E2" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="G2" s="16"/>
+      <c r="G2" s="15"/>
       <c r="H2" s="7" t="s">
         <v>16</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="17"/>
-    </row>
-    <row r="3" spans="1:10" ht="15.6">
+      <c r="J2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="16"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.6">
       <c r="A3" s="6" t="s">
         <v>60</v>
       </c>
@@ -1606,29 +1628,32 @@
         <v>9</v>
       </c>
       <c r="C3" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="G3" s="16"/>
+        <v>74</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="15"/>
       <c r="H3" s="7" t="s">
         <v>16</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="17"/>
-    </row>
-    <row r="4" spans="1:10" ht="27">
+      <c r="J3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="16"/>
+    </row>
+    <row r="4" spans="1:11" ht="27">
       <c r="A4" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>9</v>
@@ -1636,27 +1661,30 @@
       <c r="C4" s="6">
         <v>1</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="G4" s="16"/>
+      <c r="G4" s="15"/>
       <c r="H4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" ht="27">
+      <c r="J4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="16"/>
+    </row>
+    <row r="5" spans="1:11" ht="27">
       <c r="A5" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>9</v>
@@ -1664,27 +1692,30 @@
       <c r="C5" s="6">
         <v>1</v>
       </c>
-      <c r="D5" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="F5" s="16" t="s">
+      <c r="D5" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" s="15"/>
+      <c r="H5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="16"/>
+    </row>
+    <row r="6" spans="1:11" ht="27">
+      <c r="A6" s="6" t="s">
         <v>76</v>
-      </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="17"/>
-    </row>
-    <row r="6" spans="1:10" ht="27">
-      <c r="A6" s="6" t="s">
-        <v>77</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>9</v>
@@ -1692,27 +1723,30 @@
       <c r="C6" s="6">
         <v>1</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" s="15"/>
+      <c r="H6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="16"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.6">
+      <c r="A7" s="6" t="s">
         <v>78</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="17"/>
-    </row>
-    <row r="7" spans="1:10" ht="15.6">
-      <c r="A7" s="6" t="s">
-        <v>80</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>9</v>
@@ -1720,25 +1754,28 @@
       <c r="C7" s="6">
         <v>1</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="G7" s="16"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="G7" s="15"/>
       <c r="H7" s="7" t="s">
         <v>16</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="17"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.6">
+      <c r="J7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="16"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.6">
       <c r="A8" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>9</v>
@@ -1746,27 +1783,30 @@
       <c r="C8" s="6">
         <v>1</v>
       </c>
-      <c r="D8" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="G8" s="16"/>
+      <c r="D8" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" s="15"/>
       <c r="H8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="17"/>
-    </row>
-    <row r="9" spans="1:10" ht="27">
+      <c r="J8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="16"/>
+    </row>
+    <row r="9" spans="1:11" ht="27">
       <c r="A9" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>9</v>
@@ -1774,27 +1814,30 @@
       <c r="C9" s="6">
         <v>1</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="E9" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="G9" s="16"/>
+      <c r="G9" s="15"/>
       <c r="H9" s="7" t="s">
         <v>16</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="17"/>
-    </row>
-    <row r="10" spans="1:10" ht="27">
+      <c r="J9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="16"/>
+    </row>
+    <row r="10" spans="1:11" ht="27">
       <c r="A10" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>9</v>
@@ -1802,81 +1845,90 @@
       <c r="C10" s="6">
         <v>1</v>
       </c>
-      <c r="D10" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="F10" s="16" t="s">
+      <c r="D10" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="16"/>
+    </row>
+    <row r="11" spans="1:11" s="32" customFormat="1" ht="15.6">
+      <c r="A11" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="27">
+        <v>1</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" s="17"/>
-    </row>
-    <row r="11" spans="1:10" s="34" customFormat="1" ht="15.6">
-      <c r="A11" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" s="29">
-        <v>1</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="E11" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="F11" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="G11" s="32"/>
-      <c r="H11" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11" s="29"/>
-    </row>
-    <row r="12" spans="1:10" s="34" customFormat="1" ht="15.6">
-      <c r="A12" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" s="29">
-        <v>1</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="E12" s="31"/>
-      <c r="F12" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="G12" s="32"/>
-      <c r="H12" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12" s="29"/>
-    </row>
-    <row r="13" spans="1:10" ht="15.6">
+      <c r="F11" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" s="30"/>
+      <c r="H11" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="27"/>
+    </row>
+    <row r="12" spans="1:11" s="32" customFormat="1" ht="15.6">
+      <c r="A12" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="27">
+        <v>1</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="29"/>
+      <c r="F12" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" s="30"/>
+      <c r="H12" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="27"/>
+    </row>
+    <row r="13" spans="1:11" ht="15.6">
       <c r="A13" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>9</v>
@@ -1884,23 +1936,26 @@
       <c r="C13" s="6">
         <v>1</v>
       </c>
-      <c r="D13" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="F13" s="16" t="s">
+      <c r="D13" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="G13" s="16"/>
+      <c r="G13" s="15"/>
       <c r="H13" s="7" t="s">
         <v>16</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J13" s="17"/>
+      <c r="J13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
